--- a/BSA3.xlsx
+++ b/BSA3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\数据资料\联影电影数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\数据资料\联影电影数据\rarvproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C8005A-BEFE-4861-BBA3-9CEC116FD3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC681C93-8224-4F44-AA55-A125952D9478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -912,6 +912,50 @@
         <v>59</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>12498021</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="C49" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>12515254</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="C50" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>12320234</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="C51" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>12509796</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="C52" s="1">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BSA3.xlsx
+++ b/BSA3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\数据资料\联影电影数据\rarvproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC681C93-8224-4F44-AA55-A125952D9478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DEF2AF-B6C4-4525-A967-6CB35D475AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -956,6 +956,149 @@
         <v>70</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>12515825</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="C53" s="1">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>12515856</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="C54" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>12515872</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="C55" s="1">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>12515859</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="C56" s="1">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>12515877</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="C57" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>11380130</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="C58" s="1">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>12516117</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="C59" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>12516112</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="C60" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>12516945</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="C61" s="1">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>12516950</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="C62" s="1">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>12516956</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="C63" s="1">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>12516964</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="C64" s="1">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>12516986</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="C65" s="1">
+        <v>93.1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
